--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.877883333333331</v>
+        <v>11.37596266666667</v>
       </c>
       <c r="H2">
-        <v>26.63365</v>
+        <v>34.127888</v>
       </c>
       <c r="I2">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695051</v>
       </c>
       <c r="J2">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695052</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.249867</v>
+        <v>2.315894666666666</v>
       </c>
       <c r="N2">
-        <v>6.749601</v>
+        <v>6.947684</v>
       </c>
       <c r="O2">
-        <v>0.01621423513832461</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="P2">
-        <v>0.01621423513832461</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="Q2">
-        <v>19.97405674151666</v>
+        <v>26.34553126793244</v>
       </c>
       <c r="R2">
-        <v>179.76651067365</v>
+        <v>237.109781411392</v>
       </c>
       <c r="S2">
-        <v>0.0004479584750201771</v>
+        <v>0.0008459386173452147</v>
       </c>
       <c r="T2">
-        <v>0.000447958475020177</v>
+        <v>0.0008459386173452147</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.877883333333331</v>
+        <v>11.37596266666667</v>
       </c>
       <c r="H3">
-        <v>26.63365</v>
+        <v>34.127888</v>
       </c>
       <c r="I3">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695051</v>
       </c>
       <c r="J3">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695052</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.707891</v>
       </c>
       <c r="O3">
-        <v>0.02332078998021146</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="P3">
-        <v>0.02332078998021146</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="Q3">
-        <v>28.72850790357221</v>
+        <v>36.81220186268978</v>
       </c>
       <c r="R3">
-        <v>258.5565711321499</v>
+        <v>331.309816764208</v>
       </c>
       <c r="S3">
-        <v>0.0006442946846816726</v>
+        <v>0.001182016897987596</v>
       </c>
       <c r="T3">
-        <v>0.0006442946846816726</v>
+        <v>0.001182016897987596</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.877883333333331</v>
+        <v>11.37596266666667</v>
       </c>
       <c r="H4">
-        <v>26.63365</v>
+        <v>34.127888</v>
       </c>
       <c r="I4">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695051</v>
       </c>
       <c r="J4">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695052</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.69315599999999</v>
+        <v>91.48817433333333</v>
       </c>
       <c r="N4">
-        <v>146.079468</v>
+        <v>274.464523</v>
       </c>
       <c r="O4">
-        <v>0.3509195348041114</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="P4">
-        <v>0.3509195348041114</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="Q4">
-        <v>432.2921580997998</v>
+        <v>1040.766055657492</v>
       </c>
       <c r="R4">
-        <v>3890.629422898199</v>
+        <v>9366.894500917424</v>
       </c>
       <c r="S4">
-        <v>0.009695022819428696</v>
+        <v>0.03341835050312218</v>
       </c>
       <c r="T4">
-        <v>0.009695022819428696</v>
+        <v>0.03341835050312218</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,61 +726,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.877883333333331</v>
+        <v>11.37596266666667</v>
       </c>
       <c r="H5">
-        <v>26.63365</v>
+        <v>34.127888</v>
       </c>
       <c r="I5">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695051</v>
       </c>
       <c r="J5">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695052</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1183283333333333</v>
+        <v>56.39174966666667</v>
       </c>
       <c r="N5">
-        <v>0.354985</v>
+        <v>169.175249</v>
       </c>
       <c r="O5">
-        <v>0.0008527630389675126</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="P5">
-        <v>0.0008527630389675126</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="Q5">
-        <v>1.050505138361111</v>
+        <v>641.5104389160125</v>
       </c>
       <c r="R5">
-        <v>9.454546245249999</v>
+        <v>5773.593950244112</v>
       </c>
       <c r="S5">
-        <v>2.355969475159162E-05</v>
+        <v>0.02059850105849553</v>
       </c>
       <c r="T5">
-        <v>2.355969475159162E-05</v>
+        <v>0.02059850105849553</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.877883333333331</v>
+        <v>155.3909403333333</v>
       </c>
       <c r="H6">
-        <v>26.63365</v>
+        <v>466.172821</v>
       </c>
       <c r="I6">
-        <v>0.02762748111141947</v>
+        <v>0.765548861900355</v>
       </c>
       <c r="J6">
-        <v>0.02762748111141947</v>
+        <v>0.7655488619003551</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.46143500000001</v>
+        <v>2.315894666666666</v>
       </c>
       <c r="N6">
-        <v>253.384305</v>
+        <v>6.947684</v>
       </c>
       <c r="O6">
-        <v>0.608692677038385</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="P6">
-        <v>0.608692677038385</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="Q6">
-        <v>749.8387660959165</v>
+        <v>359.8690499662849</v>
       </c>
       <c r="R6">
-        <v>6748.548894863249</v>
+        <v>3238.821449696564</v>
       </c>
       <c r="S6">
-        <v>0.01681664543753734</v>
+        <v>0.01155517129101743</v>
       </c>
       <c r="T6">
-        <v>0.01681664543753734</v>
+        <v>0.01155517129101743</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>466.172821</v>
       </c>
       <c r="I7">
-        <v>0.4835679978836785</v>
+        <v>0.765548861900355</v>
       </c>
       <c r="J7">
-        <v>0.4835679978836785</v>
+        <v>0.7655488619003551</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>2.249867</v>
+        <v>3.235963666666667</v>
       </c>
       <c r="N7">
-        <v>6.749601</v>
+        <v>9.707891</v>
       </c>
       <c r="O7">
-        <v>0.01621423513832461</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="P7">
-        <v>0.01621423513832461</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="Q7">
-        <v>349.6089487549357</v>
+        <v>502.8394370478346</v>
       </c>
       <c r="R7">
-        <v>3146.480538794421</v>
+        <v>4525.554933430511</v>
       </c>
       <c r="S7">
-        <v>0.007840685223054821</v>
+        <v>0.01614586146686097</v>
       </c>
       <c r="T7">
-        <v>0.007840685223054819</v>
+        <v>0.01614586146686097</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>466.172821</v>
       </c>
       <c r="I8">
-        <v>0.4835679978836785</v>
+        <v>0.765548861900355</v>
       </c>
       <c r="J8">
-        <v>0.4835679978836785</v>
+        <v>0.7655488619003551</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.235963666666667</v>
+        <v>91.48817433333333</v>
       </c>
       <c r="N8">
-        <v>9.707891</v>
+        <v>274.464523</v>
       </c>
       <c r="O8">
-        <v>0.02332078998021146</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="P8">
-        <v>0.02332078998021146</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="Q8">
-        <v>502.8394370478346</v>
+        <v>14216.4334390366</v>
       </c>
       <c r="R8">
-        <v>4525.554933430511</v>
+        <v>127947.9009513294</v>
       </c>
       <c r="S8">
-        <v>0.01127718771979661</v>
+        <v>0.4564808325439662</v>
       </c>
       <c r="T8">
-        <v>0.01127718771979661</v>
+        <v>0.4564808325439662</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>466.172821</v>
       </c>
       <c r="I9">
-        <v>0.4835679978836785</v>
+        <v>0.765548861900355</v>
       </c>
       <c r="J9">
-        <v>0.4835679978836785</v>
+        <v>0.7655488619003551</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>48.69315599999999</v>
+        <v>56.39174966666667</v>
       </c>
       <c r="N9">
-        <v>146.079468</v>
+        <v>169.175249</v>
       </c>
       <c r="O9">
-        <v>0.3509195348041114</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="P9">
-        <v>0.3509195348041114</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="Q9">
-        <v>7566.475298637692</v>
+        <v>8762.767007745269</v>
       </c>
       <c r="R9">
-        <v>68098.27768773922</v>
+        <v>78864.90306970743</v>
       </c>
       <c r="S9">
-        <v>0.169693456863496</v>
+        <v>0.2813669965985104</v>
       </c>
       <c r="T9">
-        <v>0.169693456863496</v>
+        <v>0.2813669965985105</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>155.3909403333333</v>
+        <v>11.89345866666667</v>
       </c>
       <c r="H10">
-        <v>466.172821</v>
+        <v>35.680376</v>
       </c>
       <c r="I10">
-        <v>0.4835679978836785</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="J10">
-        <v>0.4835679978836785</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1183283333333333</v>
+        <v>2.315894666666666</v>
       </c>
       <c r="N10">
-        <v>0.354985</v>
+        <v>6.947684</v>
       </c>
       <c r="O10">
-        <v>0.0008527630389675126</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="P10">
-        <v>0.0008527630389675126</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="Q10">
-        <v>18.38715098474278</v>
+        <v>27.54399749435378</v>
       </c>
       <c r="R10">
-        <v>165.484358862685</v>
+        <v>247.895977449184</v>
       </c>
       <c r="S10">
-        <v>0.0004123689154227214</v>
+        <v>0.000884420622213639</v>
       </c>
       <c r="T10">
-        <v>0.0004123689154227214</v>
+        <v>0.0008844206222136391</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>155.3909403333333</v>
+        <v>11.89345866666667</v>
       </c>
       <c r="H11">
-        <v>466.172821</v>
+        <v>35.680376</v>
       </c>
       <c r="I11">
-        <v>0.4835679978836785</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="J11">
-        <v>0.4835679978836785</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.46143500000001</v>
+        <v>3.235963666666667</v>
       </c>
       <c r="N11">
-        <v>253.384305</v>
+        <v>9.707891</v>
       </c>
       <c r="O11">
-        <v>0.608692677038385</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="P11">
-        <v>0.608692677038385</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="Q11">
-        <v>13124.54180655271</v>
+        <v>38.48680011633511</v>
       </c>
       <c r="R11">
-        <v>118120.8762589744</v>
+        <v>346.381201047016</v>
       </c>
       <c r="S11">
-        <v>0.2943442991619084</v>
+        <v>0.00123578720601026</v>
       </c>
       <c r="T11">
-        <v>0.2943442991619084</v>
+        <v>0.00123578720601026</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.008960666666666</v>
+        <v>11.89345866666667</v>
       </c>
       <c r="H12">
-        <v>18.026882</v>
+        <v>35.680376</v>
       </c>
       <c r="I12">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="J12">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>2.249867</v>
+        <v>91.48817433333333</v>
       </c>
       <c r="N12">
-        <v>6.749601</v>
+        <v>274.464523</v>
       </c>
       <c r="O12">
-        <v>0.01621423513832461</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="P12">
-        <v>0.01621423513832461</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="Q12">
-        <v>13.51936230823133</v>
+        <v>1088.110819922294</v>
       </c>
       <c r="R12">
-        <v>121.674260774082</v>
+        <v>9792.997379300648</v>
       </c>
       <c r="S12">
-        <v>0.0003031989445715732</v>
+        <v>0.03493856142668976</v>
       </c>
       <c r="T12">
-        <v>0.0003031989445715732</v>
+        <v>0.03493856142668977</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.008960666666666</v>
+        <v>11.89345866666667</v>
       </c>
       <c r="H13">
-        <v>18.026882</v>
+        <v>35.680376</v>
       </c>
       <c r="I13">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="J13">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.235963666666667</v>
+        <v>56.39174966666667</v>
       </c>
       <c r="N13">
-        <v>9.707891</v>
+        <v>169.175249</v>
       </c>
       <c r="O13">
-        <v>0.02332078998021146</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="P13">
-        <v>0.02332078998021146</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="Q13">
-        <v>19.44477839176244</v>
+        <v>670.6929438015138</v>
       </c>
       <c r="R13">
-        <v>175.003005525862</v>
+        <v>6036.236494213625</v>
       </c>
       <c r="S13">
-        <v>0.000436088341402088</v>
+        <v>0.02153553313359205</v>
       </c>
       <c r="T13">
-        <v>0.000436088341402088</v>
+        <v>0.02153553313359205</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.008960666666666</v>
+        <v>23.69116533333333</v>
       </c>
       <c r="H14">
-        <v>18.026882</v>
+        <v>71.07349600000001</v>
       </c>
       <c r="I14">
-        <v>0.0186995527069248</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="J14">
-        <v>0.0186995527069248</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>48.69315599999999</v>
+        <v>2.315894666666666</v>
       </c>
       <c r="N14">
-        <v>146.079468</v>
+        <v>6.947684</v>
       </c>
       <c r="O14">
-        <v>0.3509195348041114</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="P14">
-        <v>0.3509195348041114</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="Q14">
-        <v>292.5952591398639</v>
+        <v>54.86624344258489</v>
       </c>
       <c r="R14">
-        <v>2633.357332258775</v>
+        <v>493.796190983264</v>
       </c>
       <c r="S14">
-        <v>0.006562038336959014</v>
+        <v>0.001761720940250702</v>
       </c>
       <c r="T14">
-        <v>0.006562038336959014</v>
+        <v>0.001761720940250702</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,61 +1346,61 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.008960666666666</v>
+        <v>23.69116533333333</v>
       </c>
       <c r="H15">
-        <v>18.026882</v>
+        <v>71.07349600000001</v>
       </c>
       <c r="I15">
-        <v>0.0186995527069248</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="J15">
-        <v>0.0186995527069248</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1183283333333333</v>
+        <v>3.235963666666667</v>
       </c>
       <c r="N15">
-        <v>0.354985</v>
+        <v>9.707891</v>
       </c>
       <c r="O15">
-        <v>0.0008527630389675126</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="P15">
-        <v>0.0008527630389675126</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="Q15">
-        <v>0.7110303007522221</v>
+        <v>76.66375023965956</v>
       </c>
       <c r="R15">
-        <v>6.399272706769999</v>
+        <v>689.973752156936</v>
       </c>
       <c r="S15">
-        <v>1.594628739369037E-05</v>
+        <v>0.00246162532152748</v>
       </c>
       <c r="T15">
-        <v>1.594628739369037E-05</v>
+        <v>0.002461625321527481</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.008960666666666</v>
+        <v>23.69116533333333</v>
       </c>
       <c r="H16">
-        <v>18.026882</v>
+        <v>71.07349600000001</v>
       </c>
       <c r="I16">
-        <v>0.0186995527069248</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="J16">
-        <v>0.0186995527069248</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.46143500000001</v>
+        <v>91.48817433333333</v>
       </c>
       <c r="N16">
-        <v>253.384305</v>
+        <v>274.464523</v>
       </c>
       <c r="O16">
-        <v>0.608692677038385</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="P16">
-        <v>0.608692677038385</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="Q16">
-        <v>507.5254407652233</v>
+        <v>2167.461464175823</v>
       </c>
       <c r="R16">
-        <v>4567.72896688701</v>
+        <v>19507.15317758241</v>
       </c>
       <c r="S16">
-        <v>0.01138228079659844</v>
+        <v>0.06959583906306338</v>
       </c>
       <c r="T16">
-        <v>0.01138228079659844</v>
+        <v>0.06959583906306339</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.89372566666666</v>
+        <v>23.69116533333333</v>
       </c>
       <c r="H17">
-        <v>53.681177</v>
+        <v>71.07349600000001</v>
       </c>
       <c r="I17">
-        <v>0.05568428298810961</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="J17">
-        <v>0.05568428298810962</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>2.249867</v>
+        <v>56.39174966666667</v>
       </c>
       <c r="N17">
-        <v>6.749601</v>
+        <v>169.175249</v>
       </c>
       <c r="O17">
-        <v>0.01621423513832461</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="P17">
-        <v>0.01621423513832461</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="Q17">
-        <v>40.25850288448633</v>
+        <v>1335.986264788945</v>
       </c>
       <c r="R17">
-        <v>362.326525960377</v>
+        <v>12023.87638310051</v>
       </c>
       <c r="S17">
-        <v>0.0009028780578782182</v>
+        <v>0.04289768773816234</v>
       </c>
       <c r="T17">
-        <v>0.0009028780578782182</v>
+        <v>0.04289768773816235</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.89372566666666</v>
+        <v>0.628254</v>
       </c>
       <c r="H18">
-        <v>53.681177</v>
+        <v>1.884762</v>
       </c>
       <c r="I18">
-        <v>0.05568428298810961</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="J18">
-        <v>0.05568428298810962</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.235963666666667</v>
+        <v>2.315894666666666</v>
       </c>
       <c r="N18">
-        <v>9.707891</v>
+        <v>6.947684</v>
       </c>
       <c r="O18">
-        <v>0.02332078998021146</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="P18">
-        <v>0.02332078998021146</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="Q18">
-        <v>57.90344611863411</v>
+        <v>1.454970087912</v>
       </c>
       <c r="R18">
-        <v>521.131015067707</v>
+        <v>13.094730791208</v>
       </c>
       <c r="S18">
-        <v>0.001298601468764366</v>
+        <v>4.671818426926393E-05</v>
       </c>
       <c r="T18">
-        <v>0.001298601468764366</v>
+        <v>4.671818426926394E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.89372566666666</v>
+        <v>0.628254</v>
       </c>
       <c r="H19">
-        <v>53.681177</v>
+        <v>1.884762</v>
       </c>
       <c r="I19">
-        <v>0.05568428298810961</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="J19">
-        <v>0.05568428298810962</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,33 +1612,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>48.69315599999999</v>
+        <v>3.235963666666667</v>
       </c>
       <c r="N19">
-        <v>146.079468</v>
+        <v>9.707891</v>
       </c>
       <c r="O19">
-        <v>0.3509195348041114</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="P19">
-        <v>0.3509195348041114</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="Q19">
-        <v>871.3019753082039</v>
+        <v>2.033007117438</v>
       </c>
       <c r="R19">
-        <v>7841.717777773835</v>
+        <v>18.297064056942</v>
       </c>
       <c r="S19">
-        <v>0.01954070268208792</v>
+        <v>6.527859364414515E-05</v>
       </c>
       <c r="T19">
-        <v>0.01954070268208792</v>
+        <v>6.527859364414516E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,51 +1656,51 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.89372566666666</v>
+        <v>0.628254</v>
       </c>
       <c r="H20">
-        <v>53.681177</v>
+        <v>1.884762</v>
       </c>
       <c r="I20">
-        <v>0.05568428298810961</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="J20">
-        <v>0.05568428298810962</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1183283333333333</v>
+        <v>91.48817433333333</v>
       </c>
       <c r="N20">
-        <v>0.354985</v>
+        <v>274.464523</v>
       </c>
       <c r="O20">
-        <v>0.0008527630389675126</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="P20">
-        <v>0.0008527630389675126</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="Q20">
-        <v>2.117334735260555</v>
+        <v>57.477811477614</v>
       </c>
       <c r="R20">
-        <v>19.056012617345</v>
+        <v>517.3003032985259</v>
       </c>
       <c r="S20">
-        <v>4.748549838366731E-05</v>
+        <v>0.001845576764989546</v>
       </c>
       <c r="T20">
-        <v>4.748549838366732E-05</v>
+        <v>0.001845576764989546</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.89372566666666</v>
+        <v>0.628254</v>
       </c>
       <c r="H21">
-        <v>53.681177</v>
+        <v>1.884762</v>
       </c>
       <c r="I21">
-        <v>0.05568428298810961</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="J21">
-        <v>0.05568428298810962</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.46143500000001</v>
+        <v>56.39174966666667</v>
       </c>
       <c r="N21">
-        <v>253.384305</v>
+        <v>169.175249</v>
       </c>
       <c r="O21">
-        <v>0.608692677038385</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="P21">
-        <v>0.608692677038385</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="Q21">
-        <v>1511.329747302998</v>
+        <v>35.428342295082</v>
       </c>
       <c r="R21">
-        <v>13601.96772572699</v>
+        <v>318.855080655738</v>
       </c>
       <c r="S21">
-        <v>0.03389461528099544</v>
+        <v>0.001137582028281743</v>
       </c>
       <c r="T21">
-        <v>0.03389461528099545</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>133.1709713333333</v>
-      </c>
-      <c r="H22">
-        <v>399.512914</v>
-      </c>
-      <c r="I22">
-        <v>0.4144206853098676</v>
-      </c>
-      <c r="J22">
-        <v>0.4144206853098676</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>2.249867</v>
-      </c>
-      <c r="N22">
-        <v>6.749601</v>
-      </c>
-      <c r="O22">
-        <v>0.01621423513832461</v>
-      </c>
-      <c r="P22">
-        <v>0.01621423513832461</v>
-      </c>
-      <c r="Q22">
-        <v>299.6169737608127</v>
-      </c>
-      <c r="R22">
-        <v>2696.552763847314</v>
-      </c>
-      <c r="S22">
-        <v>0.006719514437799822</v>
-      </c>
-      <c r="T22">
-        <v>0.00671951443779982</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>133.1709713333333</v>
-      </c>
-      <c r="H23">
-        <v>399.512914</v>
-      </c>
-      <c r="I23">
-        <v>0.4144206853098676</v>
-      </c>
-      <c r="J23">
-        <v>0.4144206853098676</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>3.235963666666667</v>
-      </c>
-      <c r="N23">
-        <v>9.707891</v>
-      </c>
-      <c r="O23">
-        <v>0.02332078998021146</v>
-      </c>
-      <c r="P23">
-        <v>0.02332078998021146</v>
-      </c>
-      <c r="Q23">
-        <v>430.9364246893749</v>
-      </c>
-      <c r="R23">
-        <v>3878.427822204374</v>
-      </c>
-      <c r="S23">
-        <v>0.009664617765566727</v>
-      </c>
-      <c r="T23">
-        <v>0.009664617765566727</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>133.1709713333333</v>
-      </c>
-      <c r="H24">
-        <v>399.512914</v>
-      </c>
-      <c r="I24">
-        <v>0.4144206853098676</v>
-      </c>
-      <c r="J24">
-        <v>0.4144206853098676</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>48.69315599999999</v>
-      </c>
-      <c r="N24">
-        <v>146.079468</v>
-      </c>
-      <c r="O24">
-        <v>0.3509195348041114</v>
-      </c>
-      <c r="P24">
-        <v>0.3509195348041114</v>
-      </c>
-      <c r="Q24">
-        <v>6484.514881805528</v>
-      </c>
-      <c r="R24">
-        <v>58360.63393624975</v>
-      </c>
-      <c r="S24">
-        <v>0.1454283141021398</v>
-      </c>
-      <c r="T24">
-        <v>0.1454283141021398</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>133.1709713333333</v>
-      </c>
-      <c r="H25">
-        <v>399.512914</v>
-      </c>
-      <c r="I25">
-        <v>0.4144206853098676</v>
-      </c>
-      <c r="J25">
-        <v>0.4144206853098676</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.1183283333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.354985</v>
-      </c>
-      <c r="O25">
-        <v>0.0008527630389675126</v>
-      </c>
-      <c r="P25">
-        <v>0.0008527630389675126</v>
-      </c>
-      <c r="Q25">
-        <v>15.75789908625444</v>
-      </c>
-      <c r="R25">
-        <v>141.82109177629</v>
-      </c>
-      <c r="S25">
-        <v>0.0003534026430158419</v>
-      </c>
-      <c r="T25">
-        <v>0.0003534026430158419</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>133.1709713333333</v>
-      </c>
-      <c r="H26">
-        <v>399.512914</v>
-      </c>
-      <c r="I26">
-        <v>0.4144206853098676</v>
-      </c>
-      <c r="J26">
-        <v>0.4144206853098676</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>84.46143500000001</v>
-      </c>
-      <c r="N26">
-        <v>253.384305</v>
-      </c>
-      <c r="O26">
-        <v>0.608692677038385</v>
-      </c>
-      <c r="P26">
-        <v>0.608692677038385</v>
-      </c>
-      <c r="Q26">
-        <v>11247.8113391572</v>
-      </c>
-      <c r="R26">
-        <v>101230.3020524148</v>
-      </c>
-      <c r="S26">
-        <v>0.2522548363613454</v>
-      </c>
-      <c r="T26">
-        <v>0.2522548363613454</v>
+        <v>0.001137582028281743</v>
       </c>
     </row>
   </sheetData>
